--- a/biology/Histoire de la zoologie et de la botanique/Société_des_amis_des_sciences_naturelles_et_du_muséum_de_Rouen/Société_des_amis_des_sciences_naturelles_et_du_muséum_de_Rouen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_des_amis_des_sciences_naturelles_et_du_muséum_de_Rouen/Société_des_amis_des_sciences_naturelles_et_du_muséum_de_Rouen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_des_amis_des_sciences_naturelles_et_du_mus%C3%A9um_de_Rouen</t>
+          <t>Société_des_amis_des_sciences_naturelles_et_du_muséum_de_Rouen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société des amis des sciences naturelles et du muséum de Rouen, est une société savante fondée à Rouen en 1865. Reconnue d'utilité publique par le décret du 4 février 1937, la Société a pour vocations l'étude et la recherche dans le domaine des sciences naturelles et notamment sur le milieu naturel régional, et le soutien du Muséum de Rouen.
 Elle organise des conférences thématiques et des prospections sur le terrain en Normandie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_des_amis_des_sciences_naturelles_et_du_mus%C3%A9um_de_Rouen</t>
+          <t>Société_des_amis_des_sciences_naturelles_et_du_muséum_de_Rouen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1899 : Augustin Le Marchand
 Joseph Chevalier
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_des_amis_des_sciences_naturelles_et_du_mus%C3%A9um_de_Rouen</t>
+          <t>Société_des_amis_des_sciences_naturelles_et_du_muséum_de_Rouen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Anciens membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jules Adeline
 Émile Anfrie
